--- a/data/134/DEUSTATIS/old/Construction price indices by maintenance of residential buildings years.xlsx
+++ b/data/134/DEUSTATIS/old/Construction price indices by maintenance of residential buildings years.xlsx
@@ -335,7 +335,7 @@
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:38:29</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:41:03</t>
   </si>
 </sst>
 </file>
@@ -8850,7 +8850,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:38:34&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:41:09&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>